--- a/Pin Mappings.xlsx
+++ b/Pin Mappings.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HARP\NTP Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HARP\NTP Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2922477-0117-44A6-894A-5128536F46C8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733A717-FDE7-4C2B-A2B7-E1168F5AA6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="14760" xr2:uid="{0FA21C09-5705-438B-B808-865B8E0EBD0C}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{0FA21C09-5705-438B-B808-865B8E0EBD0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rubidium" sheetId="1" r:id="rId1"/>
+    <sheet name="GPS" sheetId="2" r:id="rId2"/>
+    <sheet name="Crystal" sheetId="3" r:id="rId3"/>
+    <sheet name="uC" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Rubidium Pin Mapping</t>
   </si>
@@ -64,6 +67,51 @@
   </si>
   <si>
     <t>+5 Com</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Rubidium 15V Command</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Rubidium 15V Current</t>
+  </si>
+  <si>
+    <t>Rubidium 5V Command</t>
+  </si>
+  <si>
+    <t>Rubidium Fault Light</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Crystal 24V Command</t>
+  </si>
+  <si>
+    <t>Crystal 24V Current</t>
+  </si>
+  <si>
+    <t>Crystal Fault Light</t>
+  </si>
+  <si>
+    <t>PPS In</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>Crystal In</t>
+  </si>
+  <si>
+    <t>Crystal VFO</t>
+  </si>
+  <si>
+    <t>AO</t>
   </si>
 </sst>
 </file>
@@ -418,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB509F62-AAFA-440B-A700-61461D797FDE}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,4 +870,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F418692F-0DC4-418F-A9BA-EE3336027BE2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88518ACC-6511-4C4D-9A07-B536E7250E43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B1E536-3A55-4B4C-A607-AD398E8C4465}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pin Mappings.xlsx
+++ b/Pin Mappings.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HARP\NTP Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlosj\Documents\HARP\NTP-Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3733A717-FDE7-4C2B-A2B7-E1168F5AA6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{0FA21C09-5705-438B-B808-865B8E0EBD0C}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rubidium" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Crystal" sheetId="3" r:id="rId3"/>
     <sheet name="uC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>Rubidium Pin Mapping</t>
   </si>
@@ -112,12 +111,114 @@
   </si>
   <si>
     <t>AO</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>12V</t>
+  </si>
+  <si>
+    <t>EFC</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>Oven Monitor</t>
+  </si>
+  <si>
+    <t>24V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>DB25</t>
+  </si>
+  <si>
+    <t>24, 25</t>
+  </si>
+  <si>
+    <t>12, 13</t>
+  </si>
+  <si>
+    <t>22, 23</t>
+  </si>
+  <si>
+    <t>10, 11</t>
+  </si>
+  <si>
+    <t>DE9</t>
+  </si>
+  <si>
+    <t>Trimble</t>
+  </si>
+  <si>
+    <t>Antenna Power</t>
+  </si>
+  <si>
+    <t>Main Power</t>
+  </si>
+  <si>
+    <t>TXD</t>
+  </si>
+  <si>
+    <t>RXD</t>
+  </si>
+  <si>
+    <t>PPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,9 +248,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,6 +269,134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5353051" y="742950"/>
+          <a:ext cx="1638300" cy="1553351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="D-Sub Cheat Sheet"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9096375" y="2667000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400925" y="361950"/>
+          <a:ext cx="4219575" cy="1987734"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB509F62-AAFA-440B-A700-61461D797FDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -873,38 +1105,418 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F418692F-0DC4-418F-A9BA-EE3336027BE2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88518ACC-6511-4C4D-9A07-B536E7250E43}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>10811</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B1E536-3A55-4B4C-A607-AD398E8C4465}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
